--- a/data/trans_dic/P62-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P62-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,9%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>75,46; 81,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>66,55; 73,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>68,74; 76,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>75,19; 82,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>36,12; 41,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>42,59; 48,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>43,33; 50,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>54,24; 59,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>50,71; 55,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>53,05; 57,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>54,67; 59,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>62,35; 67,18</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,14%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>26,36; 34,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>23,88; 29,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>31,4; 37,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>42,33; 49,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>7,0; 10,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>12,67; 17,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>17,4; 22,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>25,55; 49,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>14,52; 18,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>18,59; 22,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>25,01; 28,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>34,21; 49,18</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,04%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>33,72; 50,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>20,05; 36,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>28,72; 43,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>48,97; 64,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>16,79; 29,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>11,51; 22,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>16,62; 28,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>29,24; 40,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>25,96; 36,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>16,94; 26,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>24,11; 33,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>40,68; 49,49</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>51,86; 57,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>41,81; 46,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>44,03; 48,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>53,58; 59,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>22,86; 26,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>27,27; 30,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>28,33; 32,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>37,17; 49,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>34,19; 37,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>34,0; 36,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>35,95; 38,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>44,85; 52,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P62-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>79,42%</t>
+          <t>78,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,94%</t>
+          <t>56,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>64,9%</t>
+          <t>64,42%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,19; 82,61</t>
+          <t>73,89; 81,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,24; 59,96</t>
+          <t>53,84; 59,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>62,35; 67,18</t>
+          <t>61,93; 66,75</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,0%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>40,23%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,33; 49,73</t>
+          <t>39,65; 47,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,55; 49,09</t>
+          <t>25,52; 61,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,21; 49,18</t>
+          <t>33,4; 57,79</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>57,2%</t>
+          <t>56,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,51%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>44,47%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,97; 64,06</t>
+          <t>47,92; 62,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,24; 40,13</t>
+          <t>29,1; 39,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,68; 49,49</t>
+          <t>40,12; 49,04</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56,36%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>47,0%</t>
+          <t>47,68%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,58; 59,3</t>
+          <t>51,25; 57,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,17; 49,46</t>
+          <t>36,91; 57,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>44,85; 52,24</t>
+          <t>44,08; 57,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P62-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,46; 81,66</t>
+          <t>75,57; 81,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,55; 73,43</t>
+          <t>66,37; 73,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>68,74; 76,07</t>
+          <t>69,01; 75,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73,89; 81,6</t>
+          <t>74,1; 81,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,12; 41,68</t>
+          <t>36,08; 41,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,59; 48,3</t>
+          <t>42,64; 48,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,33; 50,5</t>
+          <t>43,75; 50,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,84; 59,55</t>
+          <t>53,94; 59,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,71; 55,32</t>
+          <t>50,7; 55,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>53,05; 57,48</t>
+          <t>52,95; 57,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>54,67; 59,58</t>
+          <t>54,72; 59,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>61,93; 66,75</t>
+          <t>61,88; 66,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,36; 34,14</t>
+          <t>26,0; 33,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,88; 29,49</t>
+          <t>23,95; 29,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,4; 37,05</t>
+          <t>31,4; 37,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,65; 47,22</t>
+          <t>39,43; 47,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,73</t>
+          <t>6,9; 10,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 17,05</t>
+          <t>12,68; 17,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,4; 22,04</t>
+          <t>17,36; 22,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,52; 61,8</t>
+          <t>25,52; 61,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,52; 18,44</t>
+          <t>14,72; 18,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,59; 22,46</t>
+          <t>18,55; 22,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,01; 28,66</t>
+          <t>24,84; 28,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,4; 57,79</t>
+          <t>33,33; 56,01</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,72; 50,24</t>
+          <t>33,94; 50,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,05; 36,06</t>
+          <t>21,17; 36,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,72; 43,35</t>
+          <t>29,54; 43,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,92; 62,93</t>
+          <t>48,86; 64,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,79; 29,12</t>
+          <t>16,0; 28,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,51; 22,06</t>
+          <t>11,27; 22,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,62; 28,79</t>
+          <t>16,6; 28,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,1; 39,83</t>
+          <t>29,15; 39,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,96; 36,16</t>
+          <t>26,12; 36,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 26,17</t>
+          <t>17,41; 26,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,11; 33,23</t>
+          <t>23,73; 33,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,12; 49,04</t>
+          <t>40,02; 48,98</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,86; 57,12</t>
+          <t>51,84; 57,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,81; 46,19</t>
+          <t>41,93; 46,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,03; 48,78</t>
+          <t>44,17; 48,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,25; 57,28</t>
+          <t>50,96; 57,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,86; 26,49</t>
+          <t>22,8; 26,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,27; 30,78</t>
+          <t>27,34; 30,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,33; 32,23</t>
+          <t>28,28; 32,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,91; 57,72</t>
+          <t>37,06; 57,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,19; 37,31</t>
+          <t>34,06; 37,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,0; 36,9</t>
+          <t>33,9; 36,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,95; 38,8</t>
+          <t>35,76; 38,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>44,08; 57,75</t>
+          <t>44,04; 56,13</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que percibe algun tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>511567</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>550111</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>440479</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>298869</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>450924</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>537920</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>428605</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>378251</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>962492</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1088030</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>869083</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>677120</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>491030; 532390</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>521423; 575298</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>419465; 461561</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>282881; 312071</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>418763; 485756</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>505061; 571528</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>398173; 457868</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>361068; 398809</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>917858; 1006017</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1043092; 1131355</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>830582; 908984</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>650372; 698984</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>169449</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>275453</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>388530</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>392185</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>85972</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>171612</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>259214</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>488387</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>255421</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>447066</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>647743</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>880573</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>146854; 191524</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>246923; 307067</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>355482; 421168</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>355925; 426274</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>69065; 104567</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>147596; 199004</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>226296; 289897</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>328186; 791371</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>230433; 285988</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>407127; 486607</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>604921; 693269</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>729528; 1225830</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>60662</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45626</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>69302</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>108345</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41234</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35576</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52776</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>73973</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>101897</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>81201</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>122078</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>182318</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>49121; 73345</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34259; 59672</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>57019; 84659</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>94490; 124175</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29610; 53262</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24988; 49238</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39388; 68130</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>63146; 86099</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>86133; 119271</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>66756; 100665</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>102101; 143683</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>164083; 200824</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1131</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1429</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1472</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>741679</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>871189</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>898311</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>799398</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>578130</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>745108</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>740595</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>940611</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1319809</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1616297</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1638905</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1740010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>704703; 777999</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>829532; 917731</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>853779; 941046</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>753042; 842535</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>535011; 619576</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>702840; 794601</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>692959; 790172</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>804830; 1259545</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1262052; 1379693</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1541801; 1682470</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1567843; 1700884</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1607452; 2048576</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>